--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -55,9 +55,6 @@
     <t>S-6</t>
   </si>
   <si>
-    <t>S-7</t>
-  </si>
-  <si>
     <t>Запустить приложение</t>
   </si>
   <si>
@@ -70,34 +67,31 @@
     <t>Добавить задачу в список</t>
   </si>
   <si>
-    <t>Удалить задачу из списка</t>
-  </si>
-  <si>
-    <t>Удалить список</t>
-  </si>
-  <si>
-    <t>Выйти из приложения</t>
-  </si>
-  <si>
-    <t>Приложение загружается быстро или предоставляет пользователю обратную связь на экране</t>
-  </si>
-  <si>
-    <t>На экране корректно отображается созданный список</t>
-  </si>
-  <si>
-    <t>Задача создается и отображается в выбранном списке</t>
-  </si>
-  <si>
-    <t>Задача вычеркивается из списка и помечается чекбоксом</t>
-  </si>
-  <si>
-    <t>Задача удаляется из списка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Список удаляется </t>
-  </si>
-  <si>
     <t>Приложение поддерживает жестовую навигацию для возврата  на главный экран.</t>
+  </si>
+  <si>
+    <t>Установить приложение</t>
+  </si>
+  <si>
+    <t>Приложение скачивается из Google Play, установка проходит без сбоев и ошибок.</t>
+  </si>
+  <si>
+    <t>Приложение загружается быстро или предоставляет пользователю обратную связь на экране. Материалы приложения и метаданные являются полными и точными, отражают основные возможности приложения.</t>
+  </si>
+  <si>
+    <t>На главном экране приложения отображается созданный список.</t>
+  </si>
+  <si>
+    <t>В текущем списке отображается созданная задача.</t>
+  </si>
+  <si>
+    <t>Название выбранной задачи зачеркнуто в текущем списке, чекбокс отмечен.</t>
+  </si>
+  <si>
+    <t>Свернуть приложение</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -126,7 +120,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,12 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +186,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,6 +210,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -498,123 +511,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -67,6 +67,12 @@
     <t>Добавить задачу в список</t>
   </si>
   <si>
+    <t>Удалить задачу из списка</t>
+  </si>
+  <si>
+    <t>Удалить список</t>
+  </si>
+  <si>
     <t>Приложение поддерживает жестовую навигацию для возврата  на главный экран.</t>
   </si>
   <si>
@@ -92,13 +98,94 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Из текущего списка удаляется выбранная задача.</t>
+  </si>
+  <si>
+    <t>Удалить и заново установить приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновить приложения на следующую версию </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откатить приложение к предыдущей версии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновить приложение на несколько версий  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откатить приложение на несколько версий  </t>
+  </si>
+  <si>
+    <t>Обновление проходит без сбоев и ошибок.</t>
+  </si>
+  <si>
+    <t>Откат проходит без сбоев и ошибок.</t>
+  </si>
+  <si>
+    <t>Установка и обновление</t>
+  </si>
+  <si>
+    <t>Основная функциональность</t>
+  </si>
+  <si>
+    <t>Кликабельность кнопок</t>
+  </si>
+  <si>
+    <t>Все кнопки кликабельны и выполняют отрабатывают согласно заявленному функционалу</t>
+  </si>
+  <si>
+    <t>Создать несколько списков</t>
+  </si>
+  <si>
+    <t>На главном экране приложения отображаются созданные списки.</t>
+  </si>
+  <si>
+    <t>Добавить по несколько задач в каждый из списков</t>
+  </si>
+  <si>
+    <t>В каждом из списков отображаются все созданные задачи.</t>
+  </si>
+  <si>
+    <t>С главного экрана удаляется выбранный список.</t>
+  </si>
+  <si>
+    <t>Отсортировать списки по алфавиту</t>
+  </si>
+  <si>
+    <t>Отсортировать списки по выполнению</t>
+  </si>
+  <si>
+    <t>Отсортировать списки по личному предпочтению</t>
+  </si>
+  <si>
+    <t>На главном экране приложения созданные списки отображаются в алфавитном порядке.</t>
+  </si>
+  <si>
+    <t>На главном экране приложения созданные списки отображаются по проценту выполненности.</t>
+  </si>
+  <si>
+    <t>На главном экране приложения созданные списки отображаются на основе собственной сортировки с помощью перетаскивания между списками.</t>
+  </si>
+  <si>
+    <t>Развернуть приложение через кнопку "Обзор"</t>
+  </si>
+  <si>
+    <t>Развернуть приложение через кнопку "Главный экран"</t>
+  </si>
+  <si>
+    <t>Приложение сохраняет состояние пользователя или приложения и предотвращает случайную потерю данных из-за обратной навигации и других изменений состояния.</t>
+  </si>
+  <si>
+    <t>Заблокировать/разблокировать экран с запущенным приложением</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +206,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,11 +271,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -202,6 +356,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -210,6 +407,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
@@ -511,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +748,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -567,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -581,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -595,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -609,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -620,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +843,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" s="24" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Regression Testing" sheetId="3" r:id="rId3"/>
     <sheet name="E2E Testing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -133,9 +133,6 @@
     <t>Кликабельность кнопок</t>
   </si>
   <si>
-    <t>Все кнопки кликабельны и выполняют отрабатывают согласно заявленному функционалу</t>
-  </si>
-  <si>
     <t>Создать несколько списков</t>
   </si>
   <si>
@@ -179,13 +176,79 @@
   </si>
   <si>
     <t>Заблокировать/разблокировать экран с запущенным приложением</t>
+  </si>
+  <si>
+    <t>Выполнить все задачи из списка</t>
+  </si>
+  <si>
+    <t>Все задачи из текущего списка зачеркнуты и отмечены чекбоксом. Напротив списка стоит зачок "галочки".</t>
+  </si>
+  <si>
+    <t>Push-уведомления (звонок, СМС, будильник, другое приложение и тд.), всплывающие окна при работе в приложении</t>
+  </si>
+  <si>
+    <t>Push-уведомления от ToDoList</t>
+  </si>
+  <si>
+    <t>При нажатии на уведомление пользователь должен быть перенаправлен на экран в  ToDoList приложении, который непосредственно связан с этим уведомлением и позволяет ему предпринять немедленные действия.</t>
+  </si>
+  <si>
+    <t>После прерывания работы приложение сохраняет состояние пользователя или приложения и предотвращает случайную потерю данных.</t>
+  </si>
+  <si>
+    <t>Все кнопки приложения кликабельны и  отрабатывают согласно заявленному функционалу</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию</t>
+  </si>
+  <si>
+    <t>Свайпнуть верхнюю шторку</t>
+  </si>
+  <si>
+    <t>Свайпнуть нижнюю шторку</t>
+  </si>
+  <si>
+    <t>Приложение поддерживает и правильно обрабатывает как альбомную, так и книжную ориентацию: ориентации раскрывают в основном одни и те же функции и действия и сохраняют функциональный паритет; допускаются незначительные изменения в содержании или представлениях.</t>
+  </si>
+  <si>
+    <t>Разрешение на права доступа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение запрашивает только абсолютно минимальное количество разрешений, которое ему необходимо для поддержки своего варианта использования. </t>
+  </si>
+  <si>
+    <t>Клавиатура показывается при наведении фокуса в текстовое поле, все кнопки кликабельны, кнопки действий «Готово» или « Далее» работают в соответствии с заявленным функционалом</t>
+  </si>
+  <si>
+    <t>Экранная клавиатура</t>
+  </si>
+  <si>
+    <t>Светлая/темная тема</t>
+  </si>
+  <si>
+    <t>Содержимое приложения и все веб-содержимое, на которое ссылается приложение, поддерживают светлую и темную тему .</t>
+  </si>
+  <si>
+    <t>Прерывание работы</t>
+  </si>
+  <si>
+    <t>Системные элементы</t>
+  </si>
+  <si>
+    <t>Тестирование безопасности</t>
+  </si>
+  <si>
+    <t>Политика конфидециальности</t>
+  </si>
+  <si>
+    <t>Все конфиденциальные данные хранятся во внутренней памяти приложения. Никакие личные или конфиденциальные пользовательские данные не записываются в системный журнал или журнал приложения.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +284,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -341,27 +419,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -386,19 +477,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -722,12 +813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -747,13 +838,13 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -767,7 +858,7 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -781,7 +872,7 @@
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -795,7 +886,7 @@
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -809,7 +900,7 @@
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -823,7 +914,7 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -843,10 +934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,12 +949,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -880,76 +971,76 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -961,39 +1052,39 @@
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" s="24" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="22"/>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1002,12 +1093,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1021,109 +1112,238 @@
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="5" t="s">
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="5" t="s">
+      <c r="C26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="26"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="Regression Testing" sheetId="3" r:id="rId3"/>
     <sheet name="E2E Testing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -130,9 +130,6 @@
     <t>Основная функциональность</t>
   </si>
   <si>
-    <t>Кликабельность кнопок</t>
-  </si>
-  <si>
     <t>Создать несколько списков</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Push-уведомления (звонок, СМС, будильник, другое приложение и тд.), всплывающие окна при работе в приложении</t>
   </si>
   <si>
-    <t>Push-уведомления от ToDoList</t>
-  </si>
-  <si>
     <t>При нажатии на уведомление пользователь должен быть перенаправлен на экран в  ToDoList приложении, который непосредственно связан с этим уведомлением и позволяет ему предпринять немедленные действия.</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Все кнопки приложения кликабельны и  отрабатывают согласно заявленному функционалу</t>
   </si>
   <si>
-    <t>Сменить ориентацию</t>
-  </si>
-  <si>
     <t>Свайпнуть верхнюю шторку</t>
   </si>
   <si>
@@ -242,13 +233,262 @@
   </si>
   <si>
     <t>Все конфиденциальные данные хранятся во внутренней памяти приложения. Никакие личные или конфиденциальные пользовательские данные не записываются в системный журнал или журнал приложения.</t>
+  </si>
+  <si>
+    <t>Проверить кликабельность кнопок приложения</t>
+  </si>
+  <si>
+    <t>Перезапустить приложение</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в портрете, заблокировать устройство, перевернуть в лендскейп, разблокировать устройство)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в лендскейпе заблокировать устройство, перевернуть в портрет, разблокировать устройство)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в портрете, перевернуть на 180 градусов)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в лендскейпе, перевернуть на 180 градусов)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в портрете, перевернуть слева направо в лендскейп)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в портрете, перевернуть справа налево в лендскейп)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в лендскейпе, перевернуть слева направо в портрет)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в лендскейпе, перевернуть справа налево в портрет)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию (запустить в портрете, перейти на следующую страницу, перевернуть в лендскейп, вернуться назад)</t>
+  </si>
+  <si>
+    <t>Сменить ориентацию  (запустить в лендскейпе, перейти на следующую страницу, перевернуть в портрет, вернуться назад)</t>
+  </si>
+  <si>
+    <t>Push-уведомления от ToDoList (переход по push-уведомлению с заблокированного экрана)</t>
+  </si>
+  <si>
+    <t>Push-уведомления от ToDoList (переход по push-уведомлению из "шторки")</t>
+  </si>
+  <si>
+    <t>Push-уведомления от ToDoList (переход по push-уведомлению, находясь в приложении)</t>
+  </si>
+  <si>
+    <t>Push-уведомления от ToDoList (переход по push-уведомлению при свернутом приложении)</t>
+  </si>
+  <si>
+    <t>Кнопки регулирования громкости</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку отображается слайдер, который позволяет регулировать уровень громкости как с помощью кнопки, так и с помощью перетаскивания ползунка на нужный уровень.</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>Мобильный (2G, 3G, 4G, 5G)</t>
+  </si>
+  <si>
+    <t>Авиарежим</t>
+  </si>
+  <si>
+    <t>Потеря соединения</t>
+  </si>
+  <si>
+    <t>Переключение режимов</t>
+  </si>
+  <si>
+    <t>Интернет</t>
+  </si>
+  <si>
+    <t>Приложение немедленно реагирует на любые изменения в подключении и при необходимости уведомляет пользователя.</t>
+  </si>
+  <si>
+    <t>Данные и информация в приложении остаются в безопасности при их передаче по сети.Весь сетевой трафик отправляется через SSL.</t>
+  </si>
+  <si>
+    <t>Приложение пытается «переключиться» на другую сеть при потере связи с сетью и при необходимости уведомляет пользователя о том, что трафик данных невозможен.</t>
+  </si>
+  <si>
+    <t>Тестирование удобства использования</t>
+  </si>
+  <si>
+    <t>Корректное отображение элементов на устройствах с разным разрешением и размером экрана</t>
+  </si>
+  <si>
+    <t>Шрифты соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Анимация между переходами</t>
+  </si>
+  <si>
+    <t>Приложение отображает текст и текстовые блоки приемлемым образом для каждого из языков, поддерживаемых приложением.</t>
+  </si>
+  <si>
+    <t>В приложении реализована оптимизация макета для всех размеров экрана и конфигураций устройств. Расширена поддержка внешних устройств ввода.</t>
+  </si>
+  <si>
+    <t>Приложение быстро и корректно реагирует на действие пользователя именно там, где пользователь его запускает.</t>
+  </si>
+  <si>
+    <t>C-1</t>
+  </si>
+  <si>
+    <t>C-2</t>
+  </si>
+  <si>
+    <t>C-3</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>C-6</t>
+  </si>
+  <si>
+    <t>C-7</t>
+  </si>
+  <si>
+    <t>C-8</t>
+  </si>
+  <si>
+    <t>C-9</t>
+  </si>
+  <si>
+    <t>C-10</t>
+  </si>
+  <si>
+    <t>C-11</t>
+  </si>
+  <si>
+    <t>C-12</t>
+  </si>
+  <si>
+    <t>C-13</t>
+  </si>
+  <si>
+    <t>C-14</t>
+  </si>
+  <si>
+    <t>C-15</t>
+  </si>
+  <si>
+    <t>C-16</t>
+  </si>
+  <si>
+    <t>C-17</t>
+  </si>
+  <si>
+    <t>C-18</t>
+  </si>
+  <si>
+    <t>C-19</t>
+  </si>
+  <si>
+    <t>C-20</t>
+  </si>
+  <si>
+    <t>C-21</t>
+  </si>
+  <si>
+    <t>C-22</t>
+  </si>
+  <si>
+    <t>C-23</t>
+  </si>
+  <si>
+    <t>C-24</t>
+  </si>
+  <si>
+    <t>C-25</t>
+  </si>
+  <si>
+    <t>C-26</t>
+  </si>
+  <si>
+    <t>C-27</t>
+  </si>
+  <si>
+    <t>C-28</t>
+  </si>
+  <si>
+    <t>C-29</t>
+  </si>
+  <si>
+    <t>C-30</t>
+  </si>
+  <si>
+    <t>C-31</t>
+  </si>
+  <si>
+    <t>C-32</t>
+  </si>
+  <si>
+    <t>C-33</t>
+  </si>
+  <si>
+    <t>C-34</t>
+  </si>
+  <si>
+    <t>C-35</t>
+  </si>
+  <si>
+    <t>C-36</t>
+  </si>
+  <si>
+    <t>C-37</t>
+  </si>
+  <si>
+    <t>C-38</t>
+  </si>
+  <si>
+    <t>C-39</t>
+  </si>
+  <si>
+    <t>C-40</t>
+  </si>
+  <si>
+    <t>C-41</t>
+  </si>
+  <si>
+    <t>C-42</t>
+  </si>
+  <si>
+    <t>C-43</t>
+  </si>
+  <si>
+    <t>C-44</t>
+  </si>
+  <si>
+    <t>C-45</t>
+  </si>
+  <si>
+    <t>C-46</t>
+  </si>
+  <si>
+    <t>C-47</t>
+  </si>
+  <si>
+    <t>Ссылки</t>
+  </si>
+  <si>
+    <t>Ссылки ведут на соответствующий раздел и отображают верный контент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,17 +524,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,14 +550,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,11 +620,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -449,16 +711,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -477,18 +735,47 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +793,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,27 +1224,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -971,12 +1261,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -993,7 +1283,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
@@ -1003,7 +1295,9 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1307,9 @@
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1319,9 @@
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1331,9 @@
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1056,297 +1356,605 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="C25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="C57" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="17"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+    </row>
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="37"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="37"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="37"/>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A35:D35"/>
+  <mergeCells count="12">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -482,6 +482,18 @@
   </si>
   <si>
     <t>Ссылки ведут на соответствующий раздел и отображают верный контент</t>
+  </si>
+  <si>
+    <t>Удалить все списки</t>
+  </si>
+  <si>
+    <t>С главного экрана удаляются все списки.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ToDoList does not connect to the network and the data is saved only on your device. This application does not premission and waives advertising and tracking mechanisms.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -701,9 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -771,11 +786,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,6 +820,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1904999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502003</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8139544" y="8216505"/>
+          <a:ext cx="1714277" cy="3767899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509315</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459815</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861133" y="8213766"/>
+          <a:ext cx="1768909" cy="3772890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>453296</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388744</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11623523" y="8213766"/>
+          <a:ext cx="1753857" cy="3785260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213227</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>210292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531916</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>449336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8352772" y="18654156"/>
+          <a:ext cx="1530962" cy="3282096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,12 +1281,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1224,27 +1402,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1261,12 +1439,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1292,7 +1470,9 @@
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1304,7 +1484,7 @@
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1316,7 +1496,7 @@
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1328,7 +1508,7 @@
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1340,7 +1520,7 @@
       <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1366,17 +1546,19 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>111</v>
       </c>
@@ -1386,7 +1568,9 @@
       <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1454,7 +1638,9 @@
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1466,7 +1652,9 @@
       <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="39" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1478,7 +1666,9 @@
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1490,7 +1680,9 @@
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1502,459 +1694,529 @@
       <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>50</v>
+      <c r="A27" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="D27" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="D29" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="28"/>
-    </row>
-    <row r="39" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C40" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="34"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="D45" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="D47" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="D48" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="D49" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="D51" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="D53" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="D55" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="D57" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C60" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="37"/>
-    </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="D60" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C61" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="37"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="D61" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="37"/>
-    </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+      <c r="D62" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C63" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="37"/>
+      <c r="D63" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A55:D55"/>
+  <mergeCells count="13">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Critical Pass Testing" sheetId="2" r:id="rId2"/>
     <sheet name="Regression Testing" sheetId="3" r:id="rId3"/>
-    <sheet name="E2E Testing" sheetId="4" r:id="rId4"/>
+    <sheet name="E2E Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>ToDoList does not connect to the network and the data is saved only on your device. This application does not premission and waives advertising and tracking mechanisms.</t>
+  </si>
+  <si>
+    <t>Pixel 3a API 30
+Android 11.0 Google Play</t>
   </si>
 </sst>
 </file>
@@ -537,7 +541,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,8 +572,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -587,15 +597,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -679,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -729,8 +730,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -738,7 +739,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,8 +748,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -756,26 +757,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,11 +784,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,13 +832,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1904999</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502003</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -866,13 +870,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>509315</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>111331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>459815</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>37111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -904,13 +908,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>453296</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>111331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>388744</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>49481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -942,13 +946,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>213227</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>210292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>531916</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>449336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1266,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1280,65 +1284,59 @@
     <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
@@ -1346,13 +1344,13 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>25</v>
@@ -1360,13 +1358,13 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -1374,25 +1372,40 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9"/>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1402,70 +1415,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C38"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
@@ -1476,72 +1483,72 @@
     </row>
     <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
@@ -1550,135 +1557,135 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="D16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>25</v>
@@ -1686,72 +1693,72 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="D26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>49</v>
@@ -1761,11 +1768,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>50</v>
+      <c r="A28" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>49</v>
@@ -1774,445 +1781,460 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="D30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="39" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C41" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="C42" s="35"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="D46" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="D48" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="D49" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B50" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="D50" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="D52" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="D54" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="D56" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D58" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="41"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-    </row>
-    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C61" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="D61" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C62" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="D62" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B63" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+      <c r="D63" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C64" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A56:D56"/>
+  <mergeCells count="14">
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2222,24 +2244,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -498,6 +498,42 @@
   <si>
     <t>Pixel 3a API 30
 Android 11.0 Google Play</t>
+  </si>
+  <si>
+    <t>Восстановить задачу из списка, нажав кнопку "UNDO"</t>
+  </si>
+  <si>
+    <t>Восстановить список , нажав кнопку "UNDO"</t>
+  </si>
+  <si>
+    <t>Восстановить списки , нажав кнопку "UNDO"</t>
+  </si>
+  <si>
+    <t>Отменить создание списка</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "CANCEL"  отменяется создание списка и отображается сообщение "Operation cancel".</t>
+  </si>
+  <si>
+    <t>Отменить создание задачи</t>
+  </si>
+  <si>
+    <t>C-49</t>
+  </si>
+  <si>
+    <t>C-48</t>
+  </si>
+  <si>
+    <t>C-50</t>
+  </si>
+  <si>
+    <t>C-51</t>
+  </si>
+  <si>
+    <t>C-52</t>
+  </si>
+  <si>
+    <t>C-53</t>
   </si>
 </sst>
 </file>
@@ -680,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -730,6 +766,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -757,50 +838,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,14 +871,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1904999</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502003</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>34859</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -870,14 +909,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>509315</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>111331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>459815</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>37111</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -908,14 +947,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>453296</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>111331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>388744</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49481</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -946,14 +985,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>213227</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>210292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>531916</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>449336</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>449337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,6 +1011,120 @@
         <a:xfrm>
           <a:off x="8352772" y="18654156"/>
           <a:ext cx="1530962" cy="3282096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222662</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8139545" y="7904513"/>
+          <a:ext cx="2041072" cy="618506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197923</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>235033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>497778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8337468" y="7743702"/>
+          <a:ext cx="1682338" cy="658589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170592</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>544286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>401180</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>293647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734683" y="6073734"/>
+          <a:ext cx="2048997" cy="4400530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,20 +1438,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1415,35 +1568,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1460,12 +1613,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1572,12 +1725,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1607,57 +1760,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>25</v>
@@ -1665,576 +1818,640 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D22" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="D26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="D28" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="D31" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="D32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="D33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="D34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C35" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="D35" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="36" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C46" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="D51" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="D53" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="D54" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="D55" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C57" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="D57" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="C58" s="42"/>
+      <c r="D58" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C59" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="D59" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="C60" s="42"/>
+      <c r="D60" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="D61" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D63" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+    <row r="64" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="38"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="D64" s="29"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C66" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="D66" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C67" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="D67" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B68" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="D68" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C69" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="D63:D64"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2259,20 +2476,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2289,12 +2506,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -2390,11 +2607,11 @@
       <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>115</v>
       </c>
@@ -2462,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,20 +2692,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2612,7 +2829,7 @@
       <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="22" t="s">
         <v>156</v>
       </c>
     </row>

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Critical Pass Testing" sheetId="2" r:id="rId2"/>
-    <sheet name="Regression Testing" sheetId="3" r:id="rId3"/>
-    <sheet name="E2E Testing" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId3"/>
+    <sheet name="Regression Testing" sheetId="3" r:id="rId4"/>
+    <sheet name="E2E Testing" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -496,10 +497,6 @@
     <t>ToDoList does not connect to the network and the data is saved only on your device. This application does not premission and waives advertising and tracking mechanisms.</t>
   </si>
   <si>
-    <t>Pixel 3a API 30
-Android 11.0 Google Play</t>
-  </si>
-  <si>
     <t>Восстановить задачу из списка, нажав кнопку "UNDO"</t>
   </si>
   <si>
@@ -534,6 +531,139 @@
   </si>
   <si>
     <t>C-53</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Device: Pixel 3a API 30
+OS: Android 11.0 Google Play</t>
+  </si>
+  <si>
+    <t>BC-48</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "CANCEL"  отменяется создание списка и отображается сообщение "Operacion cancelada", а должно  "Operation cancel".</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "CANCEL"  отменяется создание списка и отображается сообщение "Operacion cancelada".</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>При создании новой задачи не предусмотрена возможность отмены создания задачи (отсутствует кнопка "CANCEL").</t>
+  </si>
+  <si>
+    <t>1. На главном экране нажать на плавающую кнопку действия FAB для добавления нового списка.
+2. При появлении всплывающего текстового окна нажать на кнопку "CANCEL".</t>
+  </si>
+  <si>
+    <t>1. В выбранном списке нажать на плавающую кнопку действия FAB для добавления новой задачи.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>BC-49</t>
+  </si>
+  <si>
+    <t>BC-10</t>
+  </si>
+  <si>
+    <t>При сортировке списков по выполнению не учитывается процент выполненния задач в каждом из списков.</t>
+  </si>
+  <si>
+    <t>1. Создать несколько списков.
+2. В некоторых списках создать по несколько задач.
+3. Пометить некоторые задачи, как выполненные.</t>
+  </si>
+  <si>
+    <t>1. Отсортировать задачи по выполнимости, нажав на кнопку "By not done".</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "By not done"  списки задач сортируются по проценту выполнимости снизу вверх.</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку "By not done"  списки задач некорректно сортируются по проценту выполнимости снизу вверх.</t>
+  </si>
+  <si>
+    <t>При нажатии кнопки "UNDO", удаленный список восстанавливается и отображается на главном экране.</t>
+  </si>
+  <si>
+    <t>При нажатии кнопки "UNDO", все удаленные списки восстанавливаются и отображаются на главном экране.</t>
+  </si>
+  <si>
+    <t>BC-50</t>
+  </si>
+  <si>
+    <t>При удалении задачи из списка не появляется кнопка "UNDO" для ее быстрого восстановления.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Создать список.
+2. Создать задачу в текущем списке.
+</t>
+  </si>
+  <si>
+    <t>1. Смахнуть вправо для удаления задачи.</t>
+  </si>
+  <si>
+    <t>При удалении задачи из списка появляется кнопка "UNDO" с помощью которой можно восстановить только что удаленное задание из текущего списка.</t>
+  </si>
+  <si>
+    <t>При удалении задачи из списка не появляется кнопка "UNDO" с помощью которой можно восстановить только что удаленное задание из текущего списка.</t>
+  </si>
+  <si>
+    <t>BC-53</t>
+  </si>
+  <si>
+    <t>При удалении всех списков не появляется кнопка "UNDO" для их быстрого восстановления.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Создать несколько списков.
+</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Remove all".</t>
+  </si>
+  <si>
+    <t>При удалении всех списков появляется кнопка "UNDO" с помощью которой можно восстановить только что удаленные списки.</t>
+  </si>
+  <si>
+    <t>При удалении всех списков не появляется кнопка "UNDO" с помощью которой можно восстановить только что удаленные списки.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +707,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -784,12 +920,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,6 +970,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,120 +1029,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1904999</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502003</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22489</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8139544" y="8216505"/>
-          <a:ext cx="1714277" cy="3767899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>509315</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>459815</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>24741</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9861133" y="8213766"/>
-          <a:ext cx="1768909" cy="3772890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>453296</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388744</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>37111</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11623523" y="8213766"/>
-          <a:ext cx="1753857" cy="3785260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>213227</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -992,7 +1038,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>531916</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>449337</xdr:rowOff>
+      <xdr:rowOff>449336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,7 +1048,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1019,22 +1065,179 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222662</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>669481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3714750"/>
+          <a:ext cx="1466850" cy="574231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="2562225"/>
+          <a:ext cx="1647825" cy="3538953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11224</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112597</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11224" y="11287125"/>
+          <a:ext cx="1406298" cy="3076576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533042</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1405795" y="11287184"/>
+          <a:ext cx="1432172" cy="3076516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533538</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1047,84 +1250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8139545" y="7904513"/>
-          <a:ext cx="2041072" cy="618506"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>197923</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>235033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>61851</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>497778</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8337468" y="7743702"/>
-          <a:ext cx="1682338" cy="658589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>170592</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>544286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>401180</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>293647</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10734683" y="6073734"/>
-          <a:ext cx="2048997" cy="4400530"/>
+          <a:off x="2838463" y="11296649"/>
+          <a:ext cx="1368431" cy="3076575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,12 +1565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1570,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,21 +1709,21 @@
     <col min="4" max="4" width="28.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1613,12 +1740,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1725,12 +1852,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1762,13 +1889,13 @@
     </row>
     <row r="16" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>156</v>
@@ -1790,13 +1917,13 @@
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>156</v>
@@ -1886,14 +2013,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" s="22" t="s">
         <v>156</v>
       </c>
@@ -1912,19 +2041,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>154</v>
@@ -1936,25 +2069,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>199</v>
+      </c>
       <c r="D29" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2019,7 +2154,7 @@
       <c r="B35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -2033,7 +2168,7 @@
       <c r="B36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="12" t="s">
         <v>25</v>
       </c>
@@ -2045,7 +2180,7 @@
       <c r="B37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="12" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2192,7 @@
       <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="41"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="12" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2204,7 @@
       <c r="B39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="12" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2216,7 @@
       <c r="B40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="41"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="12" t="s">
         <v>25</v>
       </c>
@@ -2093,7 +2228,7 @@
       <c r="B41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="41"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="22" t="s">
         <v>156</v>
       </c>
@@ -2105,7 +2240,7 @@
       <c r="B42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="12" t="s">
         <v>25</v>
       </c>
@@ -2117,7 +2252,7 @@
       <c r="B43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="12" t="s">
         <v>25</v>
       </c>
@@ -2129,7 +2264,7 @@
       <c r="B44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="12" t="s">
         <v>25</v>
       </c>
@@ -2153,7 +2288,7 @@
       <c r="B46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="18"/>
@@ -2165,7 +2300,7 @@
       <c r="B47" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2175,7 +2310,7 @@
       <c r="B48" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="43"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2185,16 +2320,16 @@
       <c r="B49" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
@@ -2265,12 +2400,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
@@ -2279,7 +2414,7 @@
       <c r="B57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -2293,7 +2428,7 @@
       <c r="B58" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="42"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2440,7 @@
       <c r="B59" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="38" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -2319,7 +2454,7 @@
       <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="12" t="s">
         <v>25</v>
       </c>
@@ -2339,12 +2474,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
@@ -2356,7 +2491,7 @@
       <c r="C63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="26" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2370,15 +2505,15 @@
       <c r="C64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
@@ -2461,6 +2596,412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="D6" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="D7" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="D18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="D25" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,20 +3017,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2506,12 +3047,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -2675,12 +3216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,20 +3233,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Critical Pass Testing" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId3"/>
+    <sheet name="Bug Reports" sheetId="6" r:id="rId3"/>
     <sheet name="Regression Testing" sheetId="3" r:id="rId4"/>
     <sheet name="E2E Testing" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="218">
   <si>
     <t>ToDoList - приложение для быстрого управления списками дел. Позволяет сортировать списки по разным критериям: по выполнению, алфавитному порядку и личному предпочтению. Различные значки показывают, все ли задачи из списка завершены.
 Жесты для быстрых действий:
@@ -665,11 +665,30 @@
   <si>
     <t>При удалении всех списков не появляется кнопка "UNDO" с помощью которой можно восстановить только что удаленные списки.</t>
   </si>
+  <si>
+    <t>BC-23</t>
+  </si>
+  <si>
+    <t>При смене ориентации (запустить в портрете, перевернуть на 180 градусов) приложение принимает альбомную ориентацию, а должно портретную.</t>
+  </si>
+  <si>
+    <t>При смене ориентации (запустить в портрете, перевернуть на 180 градусов) приложение принимает альбомную ориентацию.</t>
+  </si>
+  <si>
+    <t>При смене ориентации (запустить в портрете, перевернуть на 180 градусов) приложение принимает портретную ориентацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Запустить приложение в портретной ориентации.
+</t>
+  </si>
+  <si>
+    <t>1. Повернуть телефон на 180 градусов.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -920,6 +939,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,35 +1017,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,49 +1048,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213227</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>210292</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>531916</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>449336</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8352772" y="18654156"/>
-          <a:ext cx="1530962" cy="3282096"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1260,6 +1239,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387962</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8829675" y="15678150"/>
+          <a:ext cx="1530962" cy="3282096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1306,7 +1323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,7 +1358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,20 +1582,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1697,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,20 +1727,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1740,12 +1757,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1852,12 +1869,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -2084,12 +2101,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2154,7 +2171,7 @@
       <c r="B35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -2168,7 +2185,7 @@
       <c r="B36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="12" t="s">
         <v>25</v>
       </c>
@@ -2180,7 +2197,7 @@
       <c r="B37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="12" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2209,7 @@
       <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="39"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="12" t="s">
         <v>25</v>
       </c>
@@ -2204,7 +2221,7 @@
       <c r="B39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="12" t="s">
         <v>25</v>
       </c>
@@ -2216,7 +2233,7 @@
       <c r="B40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="39"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="12" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2245,7 @@
       <c r="B41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="39"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="22" t="s">
         <v>156</v>
       </c>
@@ -2240,7 +2257,7 @@
       <c r="B42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="39"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="12" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2269,7 @@
       <c r="B43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="39"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="12" t="s">
         <v>25</v>
       </c>
@@ -2264,7 +2281,7 @@
       <c r="B44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="40"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="12" t="s">
         <v>25</v>
       </c>
@@ -2288,7 +2305,7 @@
       <c r="B46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="18"/>
@@ -2300,7 +2317,7 @@
       <c r="B47" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="41"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2310,7 +2327,7 @@
       <c r="B48" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2320,16 +2337,16 @@
       <c r="B49" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="41"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
@@ -2400,12 +2417,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
@@ -2414,7 +2431,7 @@
       <c r="B57" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -2428,7 +2445,7 @@
       <c r="B58" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="12" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2457,7 @@
       <c r="B59" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="47" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -2454,7 +2471,7 @@
       <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="12" t="s">
         <v>25</v>
       </c>
@@ -2474,12 +2491,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
@@ -2491,7 +2508,7 @@
       <c r="C63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="35" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2505,15 +2522,15 @@
       <c r="C64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="27"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
@@ -2590,7 +2607,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2598,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,84 +2627,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="28" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="25" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="26"/>
+      <c r="D7" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -2696,13 +2712,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="25" t="s">
         <v>174</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -2710,131 +2726,131 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="25" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="D13" s="42" t="s">
+      <c r="B13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="28" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="26" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="23" t="s">
@@ -2842,13 +2858,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="25" t="s">
         <v>174</v>
       </c>
       <c r="E21" s="23" t="s">
@@ -2856,140 +2872,202 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="B25" s="25"/>
+      <c r="D25" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="28" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="D43" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="D44" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="25" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="D45" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="42"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="B46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="26" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="D47" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="D48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="D49" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="D50" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="D51" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="25" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="D52" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3002,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,20 +3095,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3047,14 +3125,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>111</v>
       </c>
@@ -3068,142 +3146,214 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C19" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3218,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,20 +3383,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3276,7 +3426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>111</v>
       </c>
@@ -3290,142 +3440,214 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C19" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList_Testing.xlsx
+++ b/ToDoList_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Testing" sheetId="1" r:id="rId1"/>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3370,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
